--- a/Prototype/Test/kontrol kartı/ControlPower.xlsx
+++ b/Prototype/Test/kontrol kartı/ControlPower.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesutto\Desktop\github work\IMMD\Prototype\Test\kontrol kartı\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\immdrepo\Prototype\Test\kontrol kartı\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2371,8 +2371,8 @@
   </sheetPr>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,7 +3866,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>418</v>
       </c>

--- a/Prototype/Test/kontrol kartı/ControlPower.xlsx
+++ b/Prototype/Test/kontrol kartı/ControlPower.xlsx
@@ -2371,8 +2371,8 @@
   </sheetPr>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Prototype/Test/kontrol kartı/ControlPower.xlsx
+++ b/Prototype/Test/kontrol kartı/ControlPower.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\immdrepo\Prototype\Test\kontrol kartı\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mygitimmd\Prototype\Test\kontrol kartı\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2371,8 +2371,8 @@
   </sheetPr>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
